--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1959234.718521846</v>
+        <v>1956217.128120909</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>405.006678861957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>77.60951470632907</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.3135593404359</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>333.18008691573</v>
+        <v>155.2602771141853</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>14.71468097881355</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.8804998255874</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>346.1381785399084</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>16.1436521215674</v>
       </c>
       <c r="R10" t="n">
-        <v>29.47502458765863</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>55.95391864456993</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.306260043182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.4516794615421</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>124.869925719088</v>
       </c>
       <c r="T22" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>88.23851788996291</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.7861096747049</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>170.9733491822235</v>
       </c>
       <c r="V31" t="n">
-        <v>220.6345849966181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>19.49026575459155</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>93.9102908960991</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>115.5953869016533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>158.5298129608706</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3709,16 +3709,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>166.2450749839004</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>57.64843562452401</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.435086552838</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C2" t="n">
-        <v>1336.435086552838</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.435086552838</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E2" t="n">
-        <v>950.6468339545936</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="F2" t="n">
-        <v>943.7013332053901</v>
+        <v>877.4949590844869</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>459.5311509826738</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>132.3364310186766</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1723.03492661696</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>315.4874589503122</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>165.3708195379765</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.885894456657</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C5" t="n">
-        <v>1667.923377516245</v>
+        <v>1488.206397918725</v>
       </c>
       <c r="D5" t="n">
-        <v>1667.923377516245</v>
+        <v>1488.206397918725</v>
       </c>
       <c r="E5" t="n">
-        <v>1282.135124918001</v>
+        <v>1102.418145320481</v>
       </c>
       <c r="F5" t="n">
-        <v>871.1492201283932</v>
+        <v>691.4322405308733</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U7" t="n">
-        <v>456.5405636086444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>201.8560754027576</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>814.5634103876573</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>814.5634103876573</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>403.5775055980498</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>2520.971603332393</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="R10" t="n">
-        <v>698.3562320976883</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="S10" t="n">
-        <v>698.3562320976883</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="T10" t="n">
-        <v>698.3562320976883</v>
+        <v>711.8222648917197</v>
       </c>
       <c r="U10" t="n">
-        <v>698.3562320976883</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507007</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.67826817104</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389737</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471243</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557908</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557908</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557908</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557908</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557908</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557908</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557908</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>620.2426249169049</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,22 +5261,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.5986531011363</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>354.6624701732294</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293934</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>705.247117931376</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.247117931376</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1372.785032457813</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.085404217832</v>
+        <v>1148.999617247319</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.956765431391</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>355.2830904386603</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>186.3469075107534</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1354.17636097712</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>1064.759190940159</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>836.769640042142</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>851.5101842136145</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>701.3935448012787</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>553.4804512188856</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>406.5905037209752</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>238.4151820407958</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.020508932908</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>3893.336020727022</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>3603.918850690061</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.918850690061</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916675</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6646,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.977949951427</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W31" t="n">
-        <v>875.5607799144661</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X31" t="n">
-        <v>647.5712290164488</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.7786498729187</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>509.2863307027308</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C34" t="n">
-        <v>509.2863307027308</v>
+        <v>435.497558718372</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>435.497558718372</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>435.497558718372</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>435.497558718372</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>267.3222370381926</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>116.9042285861359</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6889,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>980.3519655699311</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>980.3519655699311</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>690.9347955329705</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>690.9347955329705</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y34" t="n">
-        <v>690.9347955329705</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,25 +6929,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1071.158139962903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>782.0295011764613</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>527.3450129705744</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705744</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705744</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,46 +7157,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4503.139178847511</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="C40" t="n">
-        <v>4334.202995919604</v>
+        <v>964.2204959859339</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507269</v>
+        <v>814.1038565735981</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>666.190762991205</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426965</v>
+        <v>519.3008154932946</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>4503.139178847511</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>4503.139178847511</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>4503.139178847511</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W40" t="n">
-        <v>4503.139178847511</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X40" t="n">
-        <v>4503.139178847511</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="Y40" t="n">
-        <v>4503.139178847511</v>
+        <v>1133.156678913841</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.0827848727882</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>507.0827848727882</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>507.0827848727882</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W43" t="n">
-        <v>507.0827848727882</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X43" t="n">
-        <v>507.0827848727882</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.0827848727882</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1440.685527502828</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1186.001039296941</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>896.58386925998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504732</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>92.66155437364242</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>4.163793556670242</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>73.05088426451522</v>
       </c>
       <c r="T22" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>60.37695512824945</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,13 +24415,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>108.8451328388535</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>9.127718692831252</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.26883114644244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="V31" t="n">
-        <v>31.50305832720986</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>90.92897970968045</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>192.3270615024782</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>105.9521741567359</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>7.963755502507013</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,16 +25597,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>175.2944832206708</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>85.89256833992761</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,13 +26071,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>228.5889167740533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="L2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295509.5506079249</v>
+        <v>-295924.7651173923</v>
       </c>
       <c r="C6" t="n">
-        <v>294458.3286066196</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
-        <v>294458.32860662</v>
+        <v>294043.1140971526</v>
       </c>
       <c r="E6" t="n">
-        <v>-123521.0854209009</v>
+        <v>-123855.2543880302</v>
       </c>
       <c r="F6" t="n">
-        <v>401638.951055996</v>
+        <v>401304.7820888658</v>
       </c>
       <c r="G6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="H6" t="n">
-        <v>401638.9510559957</v>
+        <v>401304.782088866</v>
       </c>
       <c r="I6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.782088866</v>
       </c>
       <c r="J6" t="n">
-        <v>225215.7318634025</v>
+        <v>224881.562896273</v>
       </c>
       <c r="K6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888661</v>
       </c>
       <c r="L6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.782088866</v>
       </c>
       <c r="M6" t="n">
-        <v>266837.9358221582</v>
+        <v>266503.7668550287</v>
       </c>
       <c r="N6" t="n">
-        <v>401638.9510559957</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="O6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.782088866</v>
       </c>
       <c r="P6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.7820888659</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.777491158838018</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>74.32180153853218</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>36.12040330613327</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>80.604083105065</v>
+        <v>258.5238929066097</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>78.69067413679673</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>271.5671932631642</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.85334183789314</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>67.64599148088655</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>12.97909783334692</v>
       </c>
       <c r="R10" t="n">
-        <v>117.1901673924992</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.895555166631037e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>460.830575281998</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789775</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1956217.128120909</v>
+        <v>2031746.797785714</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>61.27848144397878</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>77.60951470632907</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.61795312280728</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3135593404359</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>155.2602771141853</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>211.2202495764415</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7.634490799661966</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.4548648132222</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>58.73239582312512</v>
       </c>
       <c r="G8" t="n">
-        <v>346.1381785399084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>145.7891836420065</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.1436521215674</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.95391864456993</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>122.9684277897099</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>95.7785032849267</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>68.07013494900177</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>124.869925719088</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>88.23851788996291</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>125.1833565213679</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>139.7861096747049</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.8652689647489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>170.9733491822235</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>19.49026575459155</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3244,10 +3246,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.64843562452406</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>115.6080963129632</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>158.5298129608706</v>
+        <v>78.39617803112974</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1646.746562480845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1646.746562480845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1288.480863874094</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1288.480863874094</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>877.4949590844869</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>459.5311509826738</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>132.3364310186766</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C4" t="n">
-        <v>315.4874589503122</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D4" t="n">
-        <v>165.3708195379765</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859137</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.206397918725</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D5" t="n">
-        <v>1488.206397918725</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E5" t="n">
-        <v>1102.418145320481</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="F5" t="n">
-        <v>691.4322405308733</v>
+        <v>838.7265533780389</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>420.7627452762258</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>230.6543889503775</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.65458868870988</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>61.65458868870988</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1172.829108994408</v>
+        <v>1602.481113437761</v>
       </c>
       <c r="C8" t="n">
-        <v>1172.829108994408</v>
+        <v>1602.481113437761</v>
       </c>
       <c r="D8" t="n">
-        <v>814.5634103876573</v>
+        <v>1244.21541483101</v>
       </c>
       <c r="E8" t="n">
-        <v>814.5634103876573</v>
+        <v>858.4271622327658</v>
       </c>
       <c r="F8" t="n">
-        <v>403.5775055980498</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034341</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.428949058529</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>484.423641878219</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>484.423641878219</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>711.8222648917197</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>711.8222648917197</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>711.8222648917197</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>711.8222648917197</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>422.6486545462877</v>
+        <v>484.423641878219</v>
       </c>
       <c r="V10" t="n">
-        <v>422.6486545462877</v>
+        <v>484.423641878219</v>
       </c>
       <c r="W10" t="n">
-        <v>422.6486545462877</v>
+        <v>484.423641878219</v>
       </c>
       <c r="X10" t="n">
-        <v>422.6486545462877</v>
+        <v>484.423641878219</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>484.423641878219</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,10 +5062,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2426249169049</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5610,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>656.9414171348361</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>509.028323552443</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>362.1383760545326</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>193.9630543743532</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>193.9630543743532</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5710,13 +5712,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.2225136306376</v>
+        <v>4391.604587469459</v>
       </c>
       <c r="C22" t="n">
-        <v>509.2863307027308</v>
+        <v>4222.668404541552</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>4072.551765129216</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>3924.638671546823</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>1372.785032457813</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T22" t="n">
-        <v>1148.999617247319</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U22" t="n">
-        <v>859.8709784608774</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V22" t="n">
-        <v>859.8709784608774</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="W22" t="n">
-        <v>859.8709784608774</v>
+        <v>4460.362299539158</v>
       </c>
       <c r="X22" t="n">
-        <v>859.8709784608774</v>
+        <v>4460.362299539158</v>
       </c>
       <c r="Y22" t="n">
-        <v>859.8709784608774</v>
+        <v>4460.362299539158</v>
       </c>
     </row>
     <row r="23">
@@ -5990,13 +5992,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6084,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.2830904386603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>186.3469075107534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1020.446367141521</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="C28" t="n">
-        <v>851.5101842136145</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>701.3935448012787</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>553.4804512188856</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>406.5905037209752</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>238.4151820407958</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688032</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799324</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.446367141521</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="Y28" t="n">
-        <v>1020.446367141521</v>
+        <v>1098.712528333282</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>210.2123126367999</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>791.4353891154691</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>536.7509009095822</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>247.3337308726216</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X31" t="n">
-        <v>247.3337308726216</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6703,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>604.4337416462789</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C34" t="n">
-        <v>435.497558718372</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D34" t="n">
-        <v>435.497558718372</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E34" t="n">
-        <v>435.497558718372</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F34" t="n">
-        <v>435.497558718372</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G34" t="n">
-        <v>267.3222370381926</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>116.9042285861359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>786.0822064765186</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y34" t="n">
-        <v>786.0822064765186</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="D37" t="n">
-        <v>155.4478345153607</v>
+        <v>493.7028593800968</v>
       </c>
       <c r="E37" t="n">
-        <v>155.4478345153607</v>
+        <v>493.7028593800968</v>
       </c>
       <c r="F37" t="n">
-        <v>155.4478345153607</v>
+        <v>493.7028593800968</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>325.5275376999174</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>643.8194987924326</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7162,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1133.156678913841</v>
+        <v>757.4105722479405</v>
       </c>
       <c r="C40" t="n">
-        <v>964.2204959859339</v>
+        <v>588.4743893200337</v>
       </c>
       <c r="D40" t="n">
-        <v>814.1038565735981</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="E40" t="n">
-        <v>666.190762991205</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="F40" t="n">
-        <v>519.3008154932946</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7327,7 +7329,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7366,16 +7368,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>1133.156678913841</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.156678913841</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.156678913841</v>
+        <v>939.0590370781803</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>92.66155437364242</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>163.5545705468811</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.6407421793453</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>111.7618452329355</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>73.05088426451522</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>60.37695512824945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>42.06346457725991</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.127718692831252</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>54.62829949862872</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>115.2640032163538</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>90.92897970968045</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>33.30573205457289</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>7.963755502507013</v>
+        <v>88.09739043224785</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>142.1963834921096</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="K2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26470,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26500,10 +26502,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173923</v>
+        <v>-295924.7651173922</v>
       </c>
       <c r="C6" t="n">
         <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971526</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="E6" t="n">
         <v>-123855.2543880302</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888658</v>
+        <v>401304.782088866</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888659</v>
+        <v>401304.782088866</v>
       </c>
       <c r="H6" t="n">
         <v>401304.782088866</v>
       </c>
       <c r="I6" t="n">
+        <v>401304.7820888661</v>
+      </c>
+      <c r="J6" t="n">
+        <v>224881.5628962727</v>
+      </c>
+      <c r="K6" t="n">
         <v>401304.782088866</v>
       </c>
-      <c r="J6" t="n">
-        <v>224881.562896273</v>
-      </c>
-      <c r="K6" t="n">
-        <v>401304.7820888661</v>
-      </c>
       <c r="L6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550287</v>
+        <v>266503.7668550289</v>
       </c>
       <c r="N6" t="n">
         <v>401304.7820888659</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="P6" t="n">
         <v>401304.7820888659</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>321.4553602195018</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>74.32180153853218</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.99751989540508</v>
       </c>
       <c r="E4" t="n">
-        <v>36.12040330613327</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>258.5238929066097</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>112.7025231879157</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>127.3311309926763</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>78.69067413679673</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>348.1436499185863</v>
       </c>
       <c r="G8" t="n">
-        <v>67.64599148088655</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>2.826289376205892</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.97909783334692</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29457,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299066</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031746.797785714</v>
+        <v>2024729.782894003</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.27848144397878</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>86.61795312280728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5.511247540012405</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>211.2202495764415</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.634490799661966</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>354.7522162574265</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>58.73239582312512</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690867</v>
       </c>
       <c r="D10" t="n">
-        <v>145.7891836420065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.43878055347988</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>122.9684277897099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>55.22013099942621</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>95.7785032849267</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.07013494900177</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>237.8114605152758</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C28" t="n">
-        <v>125.1833565213679</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.8652689647489</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>115.6080963129632</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>9.621991078756796</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78.39617803112974</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>24.29718497126802</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404429</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>426.3476790823676</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1249.712458167646</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>838.7265533780389</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>420.7627452762258</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>377.5443364482878</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>377.5443364482878</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>230.6543889503775</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>61.65458868870988</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>61.65458868870988</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1602.481113437761</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1602.481113437761</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1244.21541483101</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>858.4271622327658</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.481113437761</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>484.423641878219</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5038,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1442.917502322064</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W16" t="n">
-        <v>1374.705737436983</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X16" t="n">
-        <v>1374.705737436983</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y16" t="n">
-        <v>1153.913158293453</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>807.0580565471719</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C19" t="n">
-        <v>807.0580565471719</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="D19" t="n">
-        <v>656.9414171348361</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="E19" t="n">
-        <v>509.028323552443</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>362.1383760545326</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>193.9630543743532</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>193.9630543743532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.7065213774116</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4391.604587469459</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C22" t="n">
-        <v>4222.668404541552</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D22" t="n">
-        <v>4072.551765129216</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>3924.638671546823</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048913</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368733</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4749.779469576119</v>
+        <v>1258.702674077826</v>
       </c>
       <c r="V22" t="n">
-        <v>4749.779469576119</v>
+        <v>1004.018185871939</v>
       </c>
       <c r="W22" t="n">
-        <v>4460.362299539158</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="X22" t="n">
-        <v>4460.362299539158</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="Y22" t="n">
-        <v>4460.362299539158</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5989,16 +5989,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.712528333282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688032</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333282</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333282</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.712528333282</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.712528333282</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.712528333282</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6445,43 +6445,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.1484955647068</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C31" t="n">
-        <v>210.2123126367999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D31" t="n">
-        <v>210.2123126367999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E31" t="n">
-        <v>210.2123126367999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F31" t="n">
-        <v>210.2123126367999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>781.5895395384766</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.7969603949465</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>643.8194987924326</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>643.8194987924326</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>493.7028593800968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>493.7028593800968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>493.7028593800968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>325.5275376999174</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1489.197087650067</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1289.277077565619</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1065.491662355125</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293931</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W37" t="n">
-        <v>643.8194987924326</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X37" t="n">
-        <v>643.8194987924326</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.8194987924326</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,13 +7159,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>588.4743893200337</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>939.0590370781803</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,10 +7432,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7669,31 +7669,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>130.450358662183</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>142.4820294301234</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>163.5545705468811</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>91.21383164714297</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.6407421793453</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.7618452329355</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,10 +24183,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>48.42589188330152</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C28" t="n">
-        <v>42.06346457725991</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>54.62829949862872</v>
+        <v>23.17774625772611</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>133.142098661519</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>33.30573205457289</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>100.342361325036</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>88.09739043224785</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>142.1963834921096</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338506</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-295924.7651173922</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971524</v>
+        <v>294043.1140971526</v>
       </c>
       <c r="D6" t="n">
         <v>294043.1140971524</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880302</v>
+        <v>-124829.8456477519</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291443</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888661</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962727</v>
+        <v>223906.9716365513</v>
       </c>
       <c r="K6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="L6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550289</v>
+        <v>265529.1755953069</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="P6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291438</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990176</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321.4553602195018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>61.99751989540508</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>359.7616442309952</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>112.7025231879157</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>127.3311309926763</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358107</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>348.1436499185863</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717192</v>
       </c>
       <c r="D10" t="n">
-        <v>2.826289376205892</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36755,7 +36755,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299066</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024729.782894003</v>
+        <v>2029669.045743035</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800626</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665968</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7627700121621</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>259.5137794056238</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.511247540012405</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>155.9452381968312</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>354.7522162574265</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>142.3945047270883</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690867</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>8.715333384834466</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.94876677773185</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>15.02228922158428</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.43878055347988</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>55.22013099942621</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>237.8114605152758</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>62.74236544294377</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274678</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.2425576766721</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896985</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>143.3158222056515</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>58.68733419779069</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002205</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.621991078756796</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396427815</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>97.24017938133838</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>114.9309043193591</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4309,19 +4309,19 @@
         <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2113.174258592771</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4658,37 +4658,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4704,28 +4704,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862886</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1353.920247733447</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>942.9343429438397</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>524.9705348420266</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>197.7758148780295</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4843,13 +4843,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148976</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.900558318119</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5366,13 +5366,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>410.4208539717665</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>260.3042145594308</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>112.3911209770376</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1442.917502322064</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1219.13208711157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1219.13208711157</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>964.447598905683</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0304288687223</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1258.702674077826</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1004.018185871939</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>714.6010158349783</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.117678709276</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550609</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610197</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003447</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405202</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155949</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805531</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822524</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643328</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899132</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207835</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014299</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.56127523127</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141874</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465307</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121737</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851622</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590543</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614731</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126486</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571618</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636265</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924196</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688078</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905257</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.32138455061</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610198</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003448</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405203</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155959</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.8545730143</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231271</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141875</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465308</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121738</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851623</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590543</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614732</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126487</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571619</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.71878111552</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395483</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059516</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278214</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.9805482336712</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="C31" t="n">
-        <v>241.9805482336712</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D31" t="n">
-        <v>241.9805482336712</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E31" t="n">
-        <v>241.9805482336712</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F31" t="n">
-        <v>241.9805482336712</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241961</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688078</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655765</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>895.8230080122526</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336712</v>
+        <v>667.8334571142352</v>
       </c>
       <c r="Y31" t="n">
-        <v>241.9805482336712</v>
+        <v>447.0408779707051</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6764,37 +6764,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6858,37 +6858,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7001,37 +7001,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.197087650067</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S37" t="n">
-        <v>1289.277077565619</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1065.491662355125</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>776.3630235686835</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>776.3630235686835</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>486.9458535317229</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>486.9458535317229</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,25 +7195,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514088</v>
@@ -7657,43 +7657,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765193</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776703</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776703</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.450358662183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>93.48519586883731</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>130.398758801347</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>142.4820294301234</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>91.21383164714297</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.42589188330152</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>158.8051956154455</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.9670373936882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>40.67825230693111</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>23.17774625772611</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675125</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>227.8356641388003</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.3938331833827</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>100.342361325036</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>192.3581855871754</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>154.8974639424896</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.98990566424413</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338506</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538237</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590221</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590222</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>508337.7776590214</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925945</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26438,19 +26438,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871675</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871675</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173922</v>
+        <v>-295924.7651173924</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971526</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971524</v>
+        <v>294043.1140971527</v>
       </c>
       <c r="E6" t="n">
-        <v>-124829.8456477519</v>
+        <v>-123952.7135140024</v>
       </c>
       <c r="F6" t="n">
-        <v>400330.1908291443</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="G6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="H6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="I6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="J6" t="n">
-        <v>223906.9716365513</v>
+        <v>224784.1037702996</v>
       </c>
       <c r="K6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628942</v>
       </c>
       <c r="L6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="M6" t="n">
-        <v>265529.1755953069</v>
+        <v>266406.3077290567</v>
       </c>
       <c r="N6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628947</v>
       </c>
       <c r="O6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="P6" t="n">
-        <v>400330.1908291438</v>
+        <v>401207.3229628936</v>
       </c>
     </row>
   </sheetData>
@@ -26743,34 +26743,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253575</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253575</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-3.896547809827498e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545573</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>112.9202716085209</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>359.7616442309952</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>225.9851318754306</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>10.52067551358107</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9.536811517772918</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717192</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>36.48462580370254</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.417053983883097e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.356633406937666e-11</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307151</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091955</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336952</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
